--- a/OneillCRUD.xlsx
+++ b/OneillCRUD.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coneill/Documents/repos/ScienceMine/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECFBBA5-F2AA-3A41-BFE3-320C711D2C8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD1CE6-B282-2645-B392-212F4C3C01DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25260" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="91">
   <si>
     <t>Table</t>
   </si>
@@ -344,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,12 +365,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -573,43 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,6 +679,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,278 +1046,278 @@
   <dimension ref="A1:CC68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B37" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B43" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL57" sqref="BL57"/>
+      <selection pane="bottomRight" activeCell="AM46" sqref="AM46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="11" customWidth="1"/>
     <col min="11" max="12" width="2.33203125" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="17" customWidth="1"/>
     <col min="14" max="14" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="2.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3" style="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="2.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="3" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2.5" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3" style="22" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2.5" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="2.5" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="3" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="2.5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="2.5" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2.5" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="2.5" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="2.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="2.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="2.5" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="BJ1" s="9" t="s">
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="BJ1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BR1" s="9" t="s">
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BR1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="9" t="s">
+      <c r="BS1" s="77"/>
+      <c r="BT1" s="77"/>
+      <c r="BU1" s="77"/>
+      <c r="BV1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
+      <c r="BW1" s="77"/>
+      <c r="BX1" s="77"/>
+      <c r="BY1" s="77"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="AD2" s="9" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="AD2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="BR2" s="9" t="s">
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="BR2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" s="10"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="10"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
     </row>
     <row r="3" spans="1:81" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13" t="s">
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="13" t="s">
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="13" t="s">
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="11" t="s">
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="11" t="s">
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="11" t="s">
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="11" t="s">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="11" t="s">
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="11" t="s">
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="11" t="s">
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="11" t="s">
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="11" t="s">
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="11" t="s">
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="7" t="s">
+      <c r="BO3" s="68"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
+      <c r="BR3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="7" t="s">
+      <c r="BS3" s="75"/>
+      <c r="BT3" s="75"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="7" t="s">
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="75"/>
+      <c r="BY3" s="75"/>
+      <c r="BZ3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
+      <c r="CA3" s="75"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="75"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1326,7 +1326,7 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1338,7 +1338,7 @@
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1353,7 +1353,7 @@
       <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -1362,7 +1362,7 @@
       <c r="P4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -1374,7 +1374,7 @@
       <c r="T4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="V4" s="3" t="s">
@@ -1386,7 +1386,7 @@
       <c r="X4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="Z4" s="3" t="s">
@@ -1398,7 +1398,7 @@
       <c r="AB4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AC4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AD4" s="3" t="s">
@@ -1410,7 +1410,7 @@
       <c r="AF4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AG4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AH4" s="3" t="s">
@@ -1422,7 +1422,7 @@
       <c r="AJ4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="21" t="s">
+      <c r="AK4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AL4" s="3" t="s">
@@ -1434,7 +1434,7 @@
       <c r="AN4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="21" t="s">
+      <c r="AO4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AP4" s="3" t="s">
@@ -1446,7 +1446,7 @@
       <c r="AR4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AS4" s="21" t="s">
+      <c r="AS4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AT4" s="3" t="s">
@@ -1458,7 +1458,7 @@
       <c r="AV4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AW4" s="21" t="s">
+      <c r="AW4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AX4" s="3" t="s">
@@ -1470,7 +1470,7 @@
       <c r="AZ4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BA4" s="21" t="s">
+      <c r="BA4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BB4" s="3" t="s">
@@ -1482,7 +1482,7 @@
       <c r="BD4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BE4" s="21" t="s">
+      <c r="BE4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BF4" s="3" t="s">
@@ -1494,7 +1494,7 @@
       <c r="BH4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BI4" s="21" t="s">
+      <c r="BI4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BJ4" s="3" t="s">
@@ -1506,7 +1506,7 @@
       <c r="BL4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BM4" s="21" t="s">
+      <c r="BM4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BN4" s="3" t="s">
@@ -1518,7 +1518,7 @@
       <c r="BP4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BQ4" s="21" t="s">
+      <c r="BQ4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BR4" s="3" t="s">
@@ -1530,7 +1530,7 @@
       <c r="BT4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BU4" s="21" t="s">
+      <c r="BU4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BV4" s="3" t="s">
@@ -1542,7 +1542,7 @@
       <c r="BX4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BY4" s="21" t="s">
+      <c r="BY4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="BZ4" s="3" t="s">
@@ -1559,198 +1559,198 @@
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="23"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="23"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="23"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="23"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="23"/>
+      <c r="Z5" s="12"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="23"/>
+      <c r="AD5" s="12"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
-      <c r="AH5" s="23"/>
+      <c r="AH5" s="12"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="23"/>
+      <c r="AL5" s="12"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
-      <c r="AP5" s="23"/>
+      <c r="AP5" s="12"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
-      <c r="AT5" s="23"/>
+      <c r="AT5" s="12"/>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
-      <c r="AX5" s="23"/>
+      <c r="AX5" s="12"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
       <c r="BA5" s="6"/>
-      <c r="BB5" s="23"/>
+      <c r="BB5" s="12"/>
       <c r="BC5" s="6"/>
       <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
-      <c r="BF5" s="23"/>
+      <c r="BF5" s="12"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
-      <c r="BJ5" s="23"/>
+      <c r="BJ5" s="12"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
       <c r="BM5" s="6"/>
-      <c r="BN5" s="23"/>
+      <c r="BN5" s="12"/>
       <c r="BO5" s="6"/>
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6"/>
-      <c r="BR5" s="23"/>
+      <c r="BR5" s="12"/>
       <c r="BS5" s="6"/>
       <c r="BT5" s="6"/>
       <c r="BU5" s="6"/>
-      <c r="BV5" s="23"/>
+      <c r="BV5" s="12"/>
       <c r="BW5" s="6"/>
       <c r="BX5" s="6"/>
       <c r="BY5" s="6"/>
-      <c r="BZ5" s="23"/>
+      <c r="BZ5" s="12"/>
       <c r="CA5" s="6"/>
       <c r="CB5" s="6"/>
       <c r="CC5" s="6"/>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="24"/>
+      <c r="V6" s="13"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="24"/>
+      <c r="AD6" s="13"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="24"/>
+      <c r="AH6" s="13"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="24"/>
+      <c r="AL6" s="13"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
-      <c r="AP6" s="24"/>
+      <c r="AP6" s="13"/>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="24"/>
+      <c r="AT6" s="13"/>
       <c r="AU6" s="5"/>
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
-      <c r="AX6" s="24"/>
+      <c r="AX6" s="13"/>
       <c r="AY6" s="5"/>
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
-      <c r="BB6" s="24"/>
+      <c r="BB6" s="13"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="24"/>
+      <c r="BF6" s="13"/>
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
       <c r="BI6" s="5"/>
-      <c r="BJ6" s="24"/>
+      <c r="BJ6" s="13"/>
       <c r="BK6" s="5"/>
       <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
-      <c r="BN6" s="24"/>
+      <c r="BN6" s="13"/>
       <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
       <c r="BQ6" s="5"/>
-      <c r="BR6" s="24"/>
+      <c r="BR6" s="13"/>
       <c r="BS6" s="5"/>
       <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
-      <c r="BV6" s="24"/>
+      <c r="BV6" s="13"/>
       <c r="BW6" s="5"/>
       <c r="BX6" s="5"/>
       <c r="BY6" s="5"/>
-      <c r="BZ6" s="24"/>
+      <c r="BZ6" s="13"/>
       <c r="CA6" s="5"/>
       <c r="CB6" s="5"/>
       <c r="CC6" s="5"/>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="30"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="24"/>
+      <c r="R7" s="13"/>
       <c r="S7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1758,274 +1758,274 @@
         <v>32</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="24"/>
+      <c r="V7" s="13"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="24"/>
+      <c r="Z7" s="13"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="24"/>
+      <c r="AD7" s="13"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="24"/>
+      <c r="AH7" s="13"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-      <c r="AL7" s="24"/>
+      <c r="AL7" s="13"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
-      <c r="AP7" s="24"/>
+      <c r="AP7" s="13"/>
       <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="24"/>
+      <c r="AT7" s="13"/>
       <c r="AU7" s="5"/>
       <c r="AV7" s="5"/>
       <c r="AW7" s="5"/>
-      <c r="AX7" s="24"/>
+      <c r="AX7" s="13"/>
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
-      <c r="BB7" s="24"/>
+      <c r="BB7" s="13"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="5"/>
       <c r="BE7" s="5"/>
-      <c r="BF7" s="24"/>
+      <c r="BF7" s="13"/>
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
       <c r="BI7" s="5"/>
-      <c r="BJ7" s="24"/>
+      <c r="BJ7" s="13"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
-      <c r="BN7" s="24"/>
+      <c r="BN7" s="13"/>
       <c r="BO7" s="5"/>
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
-      <c r="BR7" s="24"/>
+      <c r="BR7" s="13"/>
       <c r="BS7" s="5"/>
       <c r="BT7" s="5"/>
       <c r="BU7" s="5"/>
-      <c r="BV7" s="24"/>
+      <c r="BV7" s="13"/>
       <c r="BW7" s="5"/>
       <c r="BX7" s="5"/>
       <c r="BY7" s="5"/>
-      <c r="BZ7" s="24"/>
+      <c r="BZ7" s="13"/>
       <c r="CA7" s="5"/>
       <c r="CB7" s="5"/>
       <c r="CC7" s="5"/>
     </row>
-    <row r="8" spans="1:81" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:81" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="35"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="34"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="34"/>
-      <c r="BT8" s="34"/>
-      <c r="BU8" s="34"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="34"/>
-      <c r="BX8" s="34"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="34"/>
-      <c r="CB8" s="34"/>
-      <c r="CC8" s="34"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="24"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="24"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="23"/>
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="24"/>
+      <c r="BO8" s="23"/>
+      <c r="BP8" s="23"/>
+      <c r="BQ8" s="23"/>
+      <c r="BR8" s="24"/>
+      <c r="BS8" s="23"/>
+      <c r="BT8" s="23"/>
+      <c r="BU8" s="23"/>
+      <c r="BV8" s="24"/>
+      <c r="BW8" s="23"/>
+      <c r="BX8" s="23"/>
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="24"/>
+      <c r="CA8" s="23"/>
+      <c r="CB8" s="23"/>
+      <c r="CC8" s="23"/>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="30"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="24"/>
+      <c r="R9" s="13"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="24"/>
+      <c r="V9" s="13"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="24" t="s">
+      <c r="Z9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="24"/>
+      <c r="AD9" s="13"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="24"/>
+      <c r="AH9" s="13"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="24"/>
+      <c r="AL9" s="13"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
-      <c r="AP9" s="24"/>
+      <c r="AP9" s="13"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
-      <c r="AT9" s="24"/>
+      <c r="AT9" s="13"/>
       <c r="AU9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
-      <c r="AX9" s="24"/>
+      <c r="AX9" s="13"/>
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
-      <c r="BB9" s="24"/>
+      <c r="BB9" s="13"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
-      <c r="BF9" s="24"/>
+      <c r="BF9" s="13"/>
       <c r="BG9" s="5"/>
       <c r="BH9" s="5"/>
       <c r="BI9" s="5"/>
-      <c r="BJ9" s="24"/>
+      <c r="BJ9" s="13"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
-      <c r="BN9" s="24"/>
+      <c r="BN9" s="13"/>
       <c r="BO9" s="5"/>
       <c r="BP9" s="5"/>
       <c r="BQ9" s="5"/>
-      <c r="BR9" s="24"/>
+      <c r="BR9" s="13"/>
       <c r="BS9" s="5"/>
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
-      <c r="BV9" s="24"/>
+      <c r="BV9" s="13"/>
       <c r="BW9" s="5"/>
       <c r="BX9" s="5"/>
       <c r="BY9" s="5"/>
-      <c r="BZ9" s="24"/>
+      <c r="BZ9" s="13"/>
       <c r="CA9" s="5"/>
       <c r="CB9" s="5"/>
       <c r="CC9" s="5"/>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="30"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="24"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="24"/>
+      <c r="V10" s="13"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="13"/>
       <c r="AA10" s="5" t="s">
         <v>32</v>
       </c>
@@ -2033,551 +2033,551 @@
         <v>32</v>
       </c>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="24"/>
+      <c r="AD10" s="13"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="24"/>
+      <c r="AH10" s="13"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-      <c r="AL10" s="24"/>
+      <c r="AL10" s="13"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
-      <c r="AP10" s="24"/>
+      <c r="AP10" s="13"/>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
-      <c r="AT10" s="24"/>
+      <c r="AT10" s="13"/>
       <c r="AU10" s="5"/>
       <c r="AV10" s="5"/>
       <c r="AW10" s="5"/>
-      <c r="AX10" s="24"/>
+      <c r="AX10" s="13"/>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
-      <c r="BB10" s="24"/>
+      <c r="BB10" s="13"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
-      <c r="BF10" s="24"/>
+      <c r="BF10" s="13"/>
       <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
       <c r="BI10" s="5"/>
-      <c r="BJ10" s="24"/>
+      <c r="BJ10" s="13"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
-      <c r="BN10" s="24"/>
+      <c r="BN10" s="13"/>
       <c r="BO10" s="5"/>
       <c r="BP10" s="5"/>
       <c r="BQ10" s="5"/>
-      <c r="BR10" s="24"/>
+      <c r="BR10" s="13"/>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
-      <c r="BV10" s="24"/>
+      <c r="BV10" s="13"/>
       <c r="BW10" s="5"/>
       <c r="BX10" s="5"/>
       <c r="BY10" s="5"/>
-      <c r="BZ10" s="24"/>
+      <c r="BZ10" s="13"/>
       <c r="CA10" s="5"/>
       <c r="CB10" s="5"/>
       <c r="CC10" s="5"/>
     </row>
-    <row r="11" spans="1:81" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:81" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="55"/>
-      <c r="AX11" s="56"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="55"/>
-      <c r="BB11" s="56"/>
-      <c r="BC11" s="55"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="55"/>
-      <c r="BF11" s="56"/>
-      <c r="BG11" s="55"/>
-      <c r="BH11" s="55"/>
-      <c r="BI11" s="55"/>
-      <c r="BJ11" s="56"/>
-      <c r="BK11" s="55"/>
-      <c r="BL11" s="55"/>
-      <c r="BM11" s="55"/>
-      <c r="BN11" s="56"/>
-      <c r="BO11" s="55"/>
-      <c r="BP11" s="55"/>
-      <c r="BQ11" s="55"/>
-      <c r="BR11" s="56"/>
-      <c r="BS11" s="55"/>
-      <c r="BT11" s="55"/>
-      <c r="BU11" s="55"/>
-      <c r="BV11" s="56"/>
-      <c r="BW11" s="55"/>
-      <c r="BX11" s="55"/>
-      <c r="BY11" s="55"/>
-      <c r="BZ11" s="56"/>
-      <c r="CA11" s="55"/>
-      <c r="CB11" s="55"/>
-      <c r="CC11" s="55"/>
-    </row>
-    <row r="12" spans="1:81" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="45"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="45"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="45"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="45"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="45"/>
+      <c r="CA11" s="44"/>
+      <c r="CB11" s="44"/>
+      <c r="CC11" s="44"/>
+    </row>
+    <row r="12" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="50"/>
-      <c r="BM12" s="50"/>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="50"/>
-      <c r="BQ12" s="50"/>
-      <c r="BR12" s="51"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="50"/>
-      <c r="BU12" s="50"/>
-      <c r="BV12" s="51"/>
-      <c r="BW12" s="50"/>
-      <c r="BX12" s="50"/>
-      <c r="BY12" s="50"/>
-      <c r="BZ12" s="51"/>
-      <c r="CA12" s="50"/>
-      <c r="CB12" s="50"/>
-      <c r="CC12" s="50"/>
-    </row>
-    <row r="13" spans="1:81" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="39"/>
+      <c r="BL12" s="39"/>
+      <c r="BM12" s="39"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="39"/>
+      <c r="BP12" s="39"/>
+      <c r="BQ12" s="39"/>
+      <c r="BR12" s="40"/>
+      <c r="BS12" s="39"/>
+      <c r="BT12" s="39"/>
+      <c r="BU12" s="39"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="39"/>
+      <c r="BX12" s="39"/>
+      <c r="BY12" s="39"/>
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="39"/>
+      <c r="CB12" s="39"/>
+      <c r="CC12" s="39"/>
+    </row>
+    <row r="13" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="50"/>
-      <c r="BL13" s="50"/>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="50"/>
-      <c r="BR13" s="51"/>
-      <c r="BS13" s="50"/>
-      <c r="BT13" s="50"/>
-      <c r="BU13" s="50"/>
-      <c r="BV13" s="51"/>
-      <c r="BW13" s="50"/>
-      <c r="BX13" s="50"/>
-      <c r="BY13" s="50"/>
-      <c r="BZ13" s="51"/>
-      <c r="CA13" s="50"/>
-      <c r="CB13" s="50"/>
-      <c r="CC13" s="50"/>
-    </row>
-    <row r="14" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="40"/>
+      <c r="BK13" s="39"/>
+      <c r="BL13" s="39"/>
+      <c r="BM13" s="39"/>
+      <c r="BN13" s="40"/>
+      <c r="BO13" s="39"/>
+      <c r="BP13" s="39"/>
+      <c r="BQ13" s="39"/>
+      <c r="BR13" s="40"/>
+      <c r="BS13" s="39"/>
+      <c r="BT13" s="39"/>
+      <c r="BU13" s="39"/>
+      <c r="BV13" s="40"/>
+      <c r="BW13" s="39"/>
+      <c r="BX13" s="39"/>
+      <c r="BY13" s="39"/>
+      <c r="BZ13" s="40"/>
+      <c r="CA13" s="39"/>
+      <c r="CB13" s="39"/>
+      <c r="CC13" s="39"/>
+    </row>
+    <row r="14" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="40"/>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="39"/>
-      <c r="BC14" s="40"/>
-      <c r="BD14" s="40"/>
-      <c r="BE14" s="40"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="40"/>
-      <c r="BH14" s="40"/>
-      <c r="BI14" s="40"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="40"/>
-      <c r="BL14" s="40"/>
-      <c r="BM14" s="40"/>
-      <c r="BN14" s="39"/>
-      <c r="BO14" s="40"/>
-      <c r="BP14" s="40"/>
-      <c r="BQ14" s="40"/>
-      <c r="BR14" s="39"/>
-      <c r="BS14" s="40"/>
-      <c r="BT14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU14" s="40"/>
-      <c r="BV14" s="39"/>
-      <c r="BW14" s="40"/>
-      <c r="BX14" s="40"/>
-      <c r="BY14" s="40"/>
-      <c r="BZ14" s="39"/>
-      <c r="CA14" s="40"/>
-      <c r="CB14" s="40"/>
-      <c r="CC14" s="40"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="29"/>
+      <c r="BL14" s="29"/>
+      <c r="BM14" s="29"/>
+      <c r="BN14" s="28"/>
+      <c r="BO14" s="29"/>
+      <c r="BP14" s="29"/>
+      <c r="BQ14" s="29"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU14" s="29"/>
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="29"/>
+      <c r="BX14" s="29"/>
+      <c r="BY14" s="29"/>
+      <c r="BZ14" s="28"/>
+      <c r="CA14" s="29"/>
+      <c r="CB14" s="29"/>
+      <c r="CC14" s="29"/>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="30"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="24"/>
+      <c r="R15" s="13"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="24"/>
+      <c r="V15" s="13"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="24"/>
+      <c r="Z15" s="13"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="24"/>
+      <c r="AD15" s="13"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="24"/>
+      <c r="AH15" s="13"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="24"/>
+      <c r="AL15" s="13"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
-      <c r="AP15" s="24" t="s">
+      <c r="AP15" s="13" t="s">
         <v>32</v>
       </c>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="24"/>
+      <c r="AT15" s="13"/>
       <c r="AU15" s="5"/>
       <c r="AV15" s="5"/>
       <c r="AW15" s="5"/>
-      <c r="AX15" s="24"/>
+      <c r="AX15" s="13"/>
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
-      <c r="BB15" s="24"/>
+      <c r="BB15" s="13"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="5"/>
-      <c r="BF15" s="24"/>
+      <c r="BF15" s="13"/>
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
       <c r="BI15" s="5"/>
-      <c r="BJ15" s="24"/>
+      <c r="BJ15" s="13"/>
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
-      <c r="BN15" s="24"/>
+      <c r="BN15" s="13"/>
       <c r="BO15" s="5"/>
       <c r="BP15" s="5"/>
       <c r="BQ15" s="5"/>
-      <c r="BR15" s="24"/>
+      <c r="BR15" s="13"/>
       <c r="BS15" s="5"/>
       <c r="BT15" s="5"/>
       <c r="BU15" s="5"/>
-      <c r="BV15" s="24"/>
+      <c r="BV15" s="13"/>
       <c r="BW15" s="5"/>
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
-      <c r="BZ15" s="24"/>
+      <c r="BZ15" s="13"/>
       <c r="CA15" s="5"/>
       <c r="CB15" s="5"/>
       <c r="CC15" s="5"/>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="24"/>
+      <c r="R16" s="13"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="24"/>
+      <c r="V16" s="13"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="13"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="24"/>
+      <c r="AD16" s="13"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="24"/>
+      <c r="AH16" s="13"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="24"/>
+      <c r="AL16" s="13"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
-      <c r="AP16" s="24"/>
+      <c r="AP16" s="13"/>
       <c r="AQ16" s="5" t="s">
         <v>32</v>
       </c>
@@ -2585,278 +2585,278 @@
         <v>32</v>
       </c>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="24"/>
+      <c r="AT16" s="13"/>
       <c r="AU16" s="5"/>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
-      <c r="AX16" s="24"/>
+      <c r="AX16" s="13"/>
       <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5"/>
-      <c r="BB16" s="24"/>
+      <c r="BB16" s="13"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
-      <c r="BF16" s="24"/>
+      <c r="BF16" s="13"/>
       <c r="BG16" s="5"/>
       <c r="BH16" s="5"/>
       <c r="BI16" s="5"/>
-      <c r="BJ16" s="24"/>
+      <c r="BJ16" s="13"/>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
-      <c r="BN16" s="24"/>
+      <c r="BN16" s="13"/>
       <c r="BO16" s="5"/>
       <c r="BP16" s="5"/>
       <c r="BQ16" s="5"/>
-      <c r="BR16" s="24"/>
+      <c r="BR16" s="13"/>
       <c r="BS16" s="5"/>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
-      <c r="BV16" s="24"/>
+      <c r="BV16" s="13"/>
       <c r="BW16" s="5"/>
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
-      <c r="BZ16" s="24"/>
+      <c r="BZ16" s="13"/>
       <c r="CA16" s="5"/>
       <c r="CB16" s="5"/>
       <c r="CC16" s="5"/>
     </row>
-    <row r="17" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="40"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="40"/>
-      <c r="BD17" s="40"/>
-      <c r="BE17" s="40"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="40"/>
-      <c r="BH17" s="40"/>
-      <c r="BI17" s="40"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="40"/>
-      <c r="BL17" s="40"/>
-      <c r="BM17" s="40"/>
-      <c r="BN17" s="39"/>
-      <c r="BO17" s="40"/>
-      <c r="BP17" s="40"/>
-      <c r="BQ17" s="40"/>
-      <c r="BR17" s="39"/>
-      <c r="BS17" s="40"/>
-      <c r="BT17" s="40"/>
-      <c r="BU17" s="40"/>
-      <c r="BV17" s="39"/>
-      <c r="BW17" s="40"/>
-      <c r="BX17" s="40"/>
-      <c r="BY17" s="40"/>
-      <c r="BZ17" s="39"/>
-      <c r="CA17" s="40"/>
-      <c r="CB17" s="40"/>
-      <c r="CC17" s="40"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="29"/>
+      <c r="BD17" s="29"/>
+      <c r="BE17" s="29"/>
+      <c r="BF17" s="28"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="29"/>
+      <c r="BL17" s="29"/>
+      <c r="BM17" s="29"/>
+      <c r="BN17" s="28"/>
+      <c r="BO17" s="29"/>
+      <c r="BP17" s="29"/>
+      <c r="BQ17" s="29"/>
+      <c r="BR17" s="28"/>
+      <c r="BS17" s="29"/>
+      <c r="BT17" s="29"/>
+      <c r="BU17" s="29"/>
+      <c r="BV17" s="28"/>
+      <c r="BW17" s="29"/>
+      <c r="BX17" s="29"/>
+      <c r="BY17" s="29"/>
+      <c r="BZ17" s="28"/>
+      <c r="CA17" s="29"/>
+      <c r="CB17" s="29"/>
+      <c r="CC17" s="29"/>
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="30"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="24"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="24"/>
+      <c r="V18" s="13"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="13"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="24"/>
+      <c r="AD18" s="13"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="24"/>
+      <c r="AH18" s="13"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="24"/>
+      <c r="AL18" s="13"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
-      <c r="AP18" s="24"/>
+      <c r="AP18" s="13"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="24"/>
+      <c r="AT18" s="13"/>
       <c r="AU18" s="5"/>
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
-      <c r="AX18" s="24"/>
+      <c r="AX18" s="13"/>
       <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
       <c r="BA18" s="5"/>
-      <c r="BB18" s="24" t="s">
+      <c r="BB18" s="13" t="s">
         <v>32</v>
       </c>
       <c r="BC18" s="5"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="5"/>
-      <c r="BF18" s="24"/>
+      <c r="BF18" s="13"/>
       <c r="BG18" s="5"/>
       <c r="BH18" s="5"/>
       <c r="BI18" s="5"/>
-      <c r="BJ18" s="24"/>
+      <c r="BJ18" s="13"/>
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
-      <c r="BN18" s="24"/>
+      <c r="BN18" s="13"/>
       <c r="BO18" s="5"/>
       <c r="BP18" s="5"/>
       <c r="BQ18" s="5"/>
-      <c r="BR18" s="24"/>
+      <c r="BR18" s="13"/>
       <c r="BS18" s="5"/>
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
-      <c r="BV18" s="24"/>
+      <c r="BV18" s="13"/>
       <c r="BW18" s="5"/>
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
-      <c r="BZ18" s="24"/>
+      <c r="BZ18" s="13"/>
       <c r="CA18" s="5"/>
       <c r="CB18" s="5"/>
       <c r="CC18" s="5"/>
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="30"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="24"/>
+      <c r="R19" s="13"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="24"/>
+      <c r="V19" s="13"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="24"/>
+      <c r="Z19" s="13"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="24"/>
+      <c r="AD19" s="13"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="24"/>
+      <c r="AH19" s="13"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-      <c r="AL19" s="24"/>
+      <c r="AL19" s="13"/>
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
-      <c r="AP19" s="24"/>
+      <c r="AP19" s="13"/>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
-      <c r="AT19" s="24"/>
+      <c r="AT19" s="13"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
-      <c r="AX19" s="24"/>
+      <c r="AX19" s="13"/>
       <c r="AY19" s="5"/>
       <c r="AZ19" s="5"/>
       <c r="BA19" s="5"/>
-      <c r="BB19" s="24"/>
+      <c r="BB19" s="13"/>
       <c r="BC19" s="5" t="s">
         <v>32</v>
       </c>
@@ -2864,549 +2864,549 @@
         <v>32</v>
       </c>
       <c r="BE19" s="5"/>
-      <c r="BF19" s="24"/>
+      <c r="BF19" s="13"/>
       <c r="BG19" s="5"/>
       <c r="BH19" s="5"/>
       <c r="BI19" s="5"/>
-      <c r="BJ19" s="24"/>
+      <c r="BJ19" s="13"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
-      <c r="BN19" s="24"/>
+      <c r="BN19" s="13"/>
       <c r="BO19" s="5"/>
       <c r="BP19" s="5"/>
       <c r="BQ19" s="5"/>
-      <c r="BR19" s="24"/>
+      <c r="BR19" s="13"/>
       <c r="BS19" s="5"/>
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
-      <c r="BV19" s="24"/>
+      <c r="BV19" s="13"/>
       <c r="BW19" s="5"/>
       <c r="BX19" s="5"/>
       <c r="BY19" s="5"/>
-      <c r="BZ19" s="24"/>
+      <c r="BZ19" s="13"/>
       <c r="CA19" s="5"/>
       <c r="CB19" s="5"/>
       <c r="CC19" s="5"/>
     </row>
-    <row r="20" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD20" s="40"/>
-      <c r="BE20" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="40"/>
-      <c r="BH20" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI20" s="40"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="40"/>
-      <c r="BL20" s="40"/>
-      <c r="BM20" s="40"/>
-      <c r="BN20" s="39"/>
-      <c r="BO20" s="40"/>
-      <c r="BP20" s="40"/>
-      <c r="BQ20" s="40"/>
-      <c r="BR20" s="39"/>
-      <c r="BS20" s="40"/>
-      <c r="BT20" s="40"/>
-      <c r="BU20" s="40"/>
-      <c r="BV20" s="39"/>
-      <c r="BW20" s="40"/>
-      <c r="BX20" s="40"/>
-      <c r="BY20" s="40"/>
-      <c r="BZ20" s="39"/>
-      <c r="CA20" s="40"/>
-      <c r="CB20" s="40"/>
-      <c r="CC20" s="40"/>
-    </row>
-    <row r="21" spans="1:81" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="28"/>
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+      <c r="BZ20" s="28"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
+    </row>
+    <row r="21" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK21" s="50"/>
-      <c r="BL21" s="50"/>
-      <c r="BM21" s="50"/>
-      <c r="BN21" s="51"/>
-      <c r="BO21" s="50"/>
-      <c r="BP21" s="50"/>
-      <c r="BQ21" s="50"/>
-      <c r="BR21" s="51"/>
-      <c r="BS21" s="50"/>
-      <c r="BT21" s="50"/>
-      <c r="BU21" s="50"/>
-      <c r="BV21" s="51"/>
-      <c r="BW21" s="50"/>
-      <c r="BX21" s="50"/>
-      <c r="BY21" s="50"/>
-      <c r="BZ21" s="51"/>
-      <c r="CA21" s="50"/>
-      <c r="CB21" s="50"/>
-      <c r="CC21" s="50"/>
-    </row>
-    <row r="22" spans="1:81" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="40"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK21" s="39"/>
+      <c r="BL21" s="39"/>
+      <c r="BM21" s="39"/>
+      <c r="BN21" s="40"/>
+      <c r="BO21" s="39"/>
+      <c r="BP21" s="39"/>
+      <c r="BQ21" s="39"/>
+      <c r="BR21" s="40"/>
+      <c r="BS21" s="39"/>
+      <c r="BT21" s="39"/>
+      <c r="BU21" s="39"/>
+      <c r="BV21" s="40"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="39"/>
+      <c r="BZ21" s="40"/>
+      <c r="CA21" s="39"/>
+      <c r="CB21" s="39"/>
+      <c r="CC21" s="39"/>
+    </row>
+    <row r="22" spans="1:81" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="50"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL22" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM22" s="50"/>
-      <c r="BN22" s="51"/>
-      <c r="BO22" s="50"/>
-      <c r="BP22" s="50"/>
-      <c r="BQ22" s="50"/>
-      <c r="BR22" s="51"/>
-      <c r="BS22" s="50"/>
-      <c r="BT22" s="50"/>
-      <c r="BU22" s="50"/>
-      <c r="BV22" s="51"/>
-      <c r="BW22" s="50"/>
-      <c r="BX22" s="50"/>
-      <c r="BY22" s="50"/>
-      <c r="BZ22" s="51"/>
-      <c r="CA22" s="50"/>
-      <c r="CB22" s="50"/>
-      <c r="CC22" s="50"/>
-    </row>
-    <row r="23" spans="1:81" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="40"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="40"/>
+      <c r="BK22" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL22" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM22" s="39"/>
+      <c r="BN22" s="40"/>
+      <c r="BO22" s="39"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="40"/>
+      <c r="BS22" s="39"/>
+      <c r="BT22" s="39"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="40"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+    </row>
+    <row r="23" spans="1:81" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
-      <c r="BE23" s="55"/>
-      <c r="BF23" s="56"/>
-      <c r="BG23" s="55"/>
-      <c r="BH23" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI23" s="55"/>
-      <c r="BJ23" s="56"/>
-      <c r="BK23" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL23" s="55"/>
-      <c r="BM23" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN23" s="56"/>
-      <c r="BO23" s="55"/>
-      <c r="BP23" s="55"/>
-      <c r="BQ23" s="55"/>
-      <c r="BR23" s="56"/>
-      <c r="BS23" s="55"/>
-      <c r="BT23" s="55"/>
-      <c r="BU23" s="55"/>
-      <c r="BV23" s="56"/>
-      <c r="BW23" s="55"/>
-      <c r="BX23" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="BY23" s="55"/>
-      <c r="BZ23" s="56"/>
-      <c r="CA23" s="55"/>
-      <c r="CB23" s="55"/>
-      <c r="CC23" s="55"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="44"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="44"/>
+      <c r="BH23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI23" s="44"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL23" s="44"/>
+      <c r="BM23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="44"/>
+      <c r="BP23" s="44"/>
+      <c r="BQ23" s="44"/>
+      <c r="BR23" s="45"/>
+      <c r="BS23" s="44"/>
+      <c r="BT23" s="44"/>
+      <c r="BU23" s="44"/>
+      <c r="BV23" s="45"/>
+      <c r="BW23" s="44"/>
+      <c r="BX23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY23" s="44"/>
+      <c r="BZ23" s="45"/>
+      <c r="CA23" s="44"/>
+      <c r="CB23" s="44"/>
+      <c r="CC23" s="44"/>
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="30"/>
+      <c r="M24" s="19"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="24"/>
+      <c r="R24" s="13"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="24"/>
+      <c r="V24" s="13"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="24"/>
+      <c r="Z24" s="13"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="24"/>
+      <c r="AD24" s="13"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="24"/>
+      <c r="AH24" s="13"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="24"/>
+      <c r="AL24" s="13"/>
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
-      <c r="AP24" s="24"/>
+      <c r="AP24" s="13"/>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="24"/>
+      <c r="AT24" s="13"/>
       <c r="AU24" s="5"/>
       <c r="AV24" s="5"/>
       <c r="AW24" s="5"/>
-      <c r="AX24" s="24"/>
+      <c r="AX24" s="13"/>
       <c r="AY24" s="5"/>
       <c r="AZ24" s="5"/>
       <c r="BA24" s="5"/>
-      <c r="BB24" s="24"/>
+      <c r="BB24" s="13"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="5"/>
-      <c r="BF24" s="24"/>
+      <c r="BF24" s="13"/>
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
       <c r="BI24" s="5"/>
-      <c r="BJ24" s="24"/>
+      <c r="BJ24" s="13"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
-      <c r="BN24" s="24" t="s">
+      <c r="BN24" s="13" t="s">
         <v>32</v>
       </c>
       <c r="BO24" s="5"/>
       <c r="BP24" s="5"/>
       <c r="BQ24" s="5"/>
-      <c r="BR24" s="24"/>
+      <c r="BR24" s="13"/>
       <c r="BS24" s="5"/>
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
-      <c r="BV24" s="24"/>
+      <c r="BV24" s="13"/>
       <c r="BW24" s="5"/>
       <c r="BX24" s="5"/>
       <c r="BY24" s="5"/>
-      <c r="BZ24" s="24"/>
+      <c r="BZ24" s="13"/>
       <c r="CA24" s="5"/>
       <c r="CB24" s="5"/>
       <c r="CC24" s="5"/>
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="24"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="30"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="24"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="24"/>
+      <c r="V25" s="13"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="24"/>
+      <c r="Z25" s="13"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="24"/>
+      <c r="AD25" s="13"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="24"/>
+      <c r="AH25" s="13"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-      <c r="AL25" s="24"/>
+      <c r="AL25" s="13"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
-      <c r="AP25" s="24"/>
+      <c r="AP25" s="13"/>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="24"/>
+      <c r="AT25" s="13"/>
       <c r="AU25" s="5"/>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
-      <c r="AX25" s="24"/>
+      <c r="AX25" s="13"/>
       <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
       <c r="BA25" s="5"/>
-      <c r="BB25" s="24"/>
+      <c r="BB25" s="13"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
-      <c r="BF25" s="24"/>
+      <c r="BF25" s="13"/>
       <c r="BG25" s="5"/>
       <c r="BH25" s="5"/>
       <c r="BI25" s="5"/>
-      <c r="BJ25" s="24"/>
+      <c r="BJ25" s="13"/>
       <c r="BK25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
-      <c r="BN25" s="24"/>
+      <c r="BN25" s="13"/>
       <c r="BO25" s="5" t="s">
         <v>32</v>
       </c>
@@ -3414,239 +3414,239 @@
         <v>32</v>
       </c>
       <c r="BQ25" s="5"/>
-      <c r="BR25" s="24"/>
+      <c r="BR25" s="13"/>
       <c r="BS25" s="5"/>
       <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
-      <c r="BV25" s="24"/>
+      <c r="BV25" s="13"/>
       <c r="BW25" s="5"/>
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
-      <c r="BZ25" s="24"/>
+      <c r="BZ25" s="13"/>
       <c r="CA25" s="5"/>
       <c r="CB25" s="5"/>
       <c r="CC25" s="5"/>
     </row>
-    <row r="26" spans="1:81" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:81" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="35"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="34"/>
-      <c r="BA26" s="34"/>
-      <c r="BB26" s="35"/>
-      <c r="BC26" s="34"/>
-      <c r="BD26" s="34"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="35"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="35"/>
-      <c r="BK26" s="34"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="34"/>
-      <c r="BN26" s="35"/>
-      <c r="BO26" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR26" s="35"/>
-      <c r="BS26" s="34"/>
-      <c r="BT26" s="34"/>
-      <c r="BU26" s="34"/>
-      <c r="BV26" s="35"/>
-      <c r="BW26" s="34"/>
-      <c r="BX26" s="34"/>
-      <c r="BY26" s="34"/>
-      <c r="BZ26" s="35"/>
-      <c r="CA26" s="34"/>
-      <c r="CB26" s="34"/>
-      <c r="CC26" s="34"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="24"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="24"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="24"/>
+      <c r="BO26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP26" s="23"/>
+      <c r="BQ26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR26" s="24"/>
+      <c r="BS26" s="23"/>
+      <c r="BT26" s="23"/>
+      <c r="BU26" s="23"/>
+      <c r="BV26" s="24"/>
+      <c r="BW26" s="23"/>
+      <c r="BX26" s="23"/>
+      <c r="BY26" s="23"/>
+      <c r="BZ26" s="24"/>
+      <c r="CA26" s="23"/>
+      <c r="CB26" s="23"/>
+      <c r="CC26" s="23"/>
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="31"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="25"/>
+      <c r="R27" s="14"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="25"/>
+      <c r="V27" s="14"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="25"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="25"/>
+      <c r="AD27" s="14"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="25"/>
+      <c r="AH27" s="14"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
-      <c r="AL27" s="25"/>
+      <c r="AL27" s="14"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="AP27" s="25"/>
+      <c r="AP27" s="14"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
-      <c r="AT27" s="25"/>
+      <c r="AT27" s="14"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
-      <c r="AX27" s="25"/>
+      <c r="AX27" s="14"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
-      <c r="BB27" s="25"/>
+      <c r="BB27" s="14"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
-      <c r="BF27" s="25"/>
+      <c r="BF27" s="14"/>
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
-      <c r="BJ27" s="25"/>
+      <c r="BJ27" s="14"/>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
       <c r="BM27" s="1"/>
-      <c r="BN27" s="25"/>
+      <c r="BN27" s="14"/>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
-      <c r="BR27" s="25"/>
+      <c r="BR27" s="14"/>
       <c r="BS27" s="1"/>
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
-      <c r="BV27" s="25"/>
+      <c r="BV27" s="14"/>
       <c r="BW27" s="1"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
-      <c r="BZ27" s="25"/>
+      <c r="BZ27" s="14"/>
       <c r="CA27" s="1"/>
       <c r="CB27" s="1"/>
       <c r="CC27" s="1"/>
     </row>
-    <row r="28" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="64"/>
-      <c r="J28" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="64"/>
-      <c r="S28" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" s="64"/>
-      <c r="W28" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BN28" s="64"/>
-      <c r="BR28" s="64"/>
-      <c r="BV28" s="64"/>
-      <c r="BZ28" s="64"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="53"/>
+      <c r="J28" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="53"/>
+      <c r="S28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="53"/>
+      <c r="W28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BJ28" s="53"/>
+      <c r="BN28" s="53"/>
+      <c r="BR28" s="53"/>
+      <c r="BV28" s="53"/>
+      <c r="BZ28" s="53"/>
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="5"/>
@@ -3657,199 +3657,199 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:81" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="E30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="I30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="72"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AL30" s="72"/>
-      <c r="AP30" s="72"/>
-      <c r="AT30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="BB30" s="72"/>
-      <c r="BF30" s="72"/>
-      <c r="BJ30" s="72"/>
-      <c r="BN30" s="72"/>
-      <c r="BR30" s="72"/>
-      <c r="BT30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BV30" s="72"/>
-      <c r="BZ30" s="72"/>
-    </row>
-    <row r="31" spans="1:81" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
+      <c r="B30" s="60"/>
+      <c r="E30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="I30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="61"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AL30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AT30" s="61"/>
+      <c r="AX30" s="61"/>
+      <c r="BB30" s="61"/>
+      <c r="BF30" s="61"/>
+      <c r="BJ30" s="61"/>
+      <c r="BN30" s="61"/>
+      <c r="BR30" s="61"/>
+      <c r="BT30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV30" s="61"/>
+      <c r="BZ30" s="61"/>
+    </row>
+    <row r="31" spans="1:81" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="J31" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="65"/>
-      <c r="R31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BN31" s="68"/>
-      <c r="BR31" s="68"/>
-      <c r="BV31" s="68"/>
-      <c r="BZ31" s="68"/>
-    </row>
-    <row r="32" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
+      <c r="B31" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="J31" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="R31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BR31" s="57"/>
+      <c r="BV31" s="57"/>
+      <c r="BZ31" s="57"/>
+    </row>
+    <row r="32" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="M32" s="32"/>
-      <c r="R32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BN32" s="26"/>
-      <c r="BR32" s="26"/>
-      <c r="BV32" s="26"/>
-      <c r="BZ32" s="26"/>
-    </row>
-    <row r="33" spans="1:81" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="M32" s="21"/>
+      <c r="R32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BZ32" s="15"/>
+    </row>
+    <row r="33" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="E33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="72"/>
-      <c r="H33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="72"/>
-      <c r="M33" s="70"/>
-      <c r="R33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AF33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH33" s="72"/>
-      <c r="AL33" s="72"/>
-      <c r="AP33" s="72"/>
-      <c r="AT33" s="72"/>
-      <c r="AX33" s="72"/>
-      <c r="BB33" s="72"/>
-      <c r="BF33" s="72"/>
-      <c r="BJ33" s="72"/>
-      <c r="BN33" s="72"/>
-      <c r="BR33" s="72"/>
-      <c r="BT33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BV33" s="72"/>
-      <c r="BZ33" s="72"/>
-    </row>
-    <row r="34" spans="1:81" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
+      <c r="B33" s="60"/>
+      <c r="E33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="H33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="M33" s="59"/>
+      <c r="R33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AF33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="BB33" s="61"/>
+      <c r="BF33" s="61"/>
+      <c r="BJ33" s="61"/>
+      <c r="BN33" s="61"/>
+      <c r="BR33" s="61"/>
+      <c r="BT33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV33" s="61"/>
+      <c r="BZ33" s="61"/>
+    </row>
+    <row r="34" spans="1:81" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="61"/>
-      <c r="M34" s="59"/>
-      <c r="O34" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" s="61"/>
-      <c r="S34" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="V34" s="61"/>
-      <c r="W34" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD34" s="61"/>
-      <c r="AH34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AP34" s="61"/>
-      <c r="AT34" s="61"/>
-      <c r="AX34" s="61"/>
-      <c r="BB34" s="61"/>
-      <c r="BF34" s="61"/>
-      <c r="BJ34" s="61"/>
-      <c r="BN34" s="61"/>
-      <c r="BR34" s="61"/>
-      <c r="BV34" s="61"/>
-      <c r="BZ34" s="61"/>
+      <c r="C34" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="50"/>
+      <c r="M34" s="48"/>
+      <c r="O34" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="50"/>
+      <c r="S34" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="50"/>
+      <c r="W34" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="BB34" s="50"/>
+      <c r="BF34" s="50"/>
+      <c r="BJ34" s="50"/>
+      <c r="BN34" s="50"/>
+      <c r="BR34" s="50"/>
+      <c r="BV34" s="50"/>
+      <c r="BZ34" s="50"/>
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G35" t="s">
@@ -3860,7 +3860,7 @@
       </c>
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G36" t="s">
@@ -3876,156 +3876,156 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+    <row r="37" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="M37" s="62"/>
-      <c r="R37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AX37" s="64"/>
-      <c r="BB37" s="64"/>
-      <c r="BF37" s="64"/>
-      <c r="BJ37" s="64"/>
-      <c r="BN37" s="64"/>
-      <c r="BR37" s="64"/>
-      <c r="BV37" s="64"/>
-      <c r="BZ37" s="64"/>
+      <c r="F37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="M37" s="51"/>
+      <c r="R37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AT37" s="53"/>
+      <c r="AX37" s="53"/>
+      <c r="BB37" s="53"/>
+      <c r="BF37" s="53"/>
+      <c r="BJ37" s="53"/>
+      <c r="BN37" s="53"/>
+      <c r="BR37" s="53"/>
+      <c r="BV37" s="53"/>
+      <c r="BZ37" s="53"/>
     </row>
     <row r="38" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:81" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73" t="s">
+    <row r="40" spans="1:81" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="74"/>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="74"/>
-      <c r="AD40" s="75"/>
-      <c r="AE40" s="74"/>
-      <c r="AF40" s="74"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="74"/>
-      <c r="AJ40" s="74"/>
-      <c r="AK40" s="74"/>
-      <c r="AL40" s="75"/>
-      <c r="AM40" s="74"/>
-      <c r="AN40" s="74"/>
-      <c r="AO40" s="74"/>
-      <c r="AP40" s="75"/>
-      <c r="AQ40" s="74"/>
-      <c r="AR40" s="74"/>
-      <c r="AS40" s="74"/>
-      <c r="AT40" s="75"/>
-      <c r="AU40" s="74"/>
-      <c r="AV40" s="74"/>
-      <c r="AW40" s="74"/>
-      <c r="AX40" s="75"/>
-      <c r="AY40" s="74"/>
-      <c r="AZ40" s="74"/>
-      <c r="BA40" s="74"/>
-      <c r="BB40" s="75"/>
-      <c r="BC40" s="74"/>
-      <c r="BD40" s="74"/>
-      <c r="BE40" s="74"/>
-      <c r="BF40" s="75"/>
-      <c r="BG40" s="74"/>
-      <c r="BH40" s="74"/>
-      <c r="BI40" s="74"/>
-      <c r="BJ40" s="75"/>
-      <c r="BK40" s="74"/>
-      <c r="BL40" s="74"/>
-      <c r="BM40" s="74"/>
-      <c r="BN40" s="75"/>
-      <c r="BO40" s="74"/>
-      <c r="BP40" s="74"/>
-      <c r="BQ40" s="74"/>
-      <c r="BR40" s="75"/>
-      <c r="BS40" s="74"/>
-      <c r="BT40" s="74"/>
-      <c r="BU40" s="74"/>
-      <c r="BV40" s="75"/>
-      <c r="BW40" s="74"/>
-      <c r="BX40" s="74"/>
-      <c r="BY40" s="74"/>
-      <c r="BZ40" s="75"/>
-      <c r="CA40" s="74"/>
-      <c r="CB40" s="74"/>
-      <c r="CC40" s="74"/>
-    </row>
-    <row r="41" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="s">
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="64"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="63"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="63"/>
+      <c r="AV40" s="63"/>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="63"/>
+      <c r="AZ40" s="63"/>
+      <c r="BA40" s="63"/>
+      <c r="BB40" s="64"/>
+      <c r="BC40" s="63"/>
+      <c r="BD40" s="63"/>
+      <c r="BE40" s="63"/>
+      <c r="BF40" s="64"/>
+      <c r="BG40" s="63"/>
+      <c r="BH40" s="63"/>
+      <c r="BI40" s="63"/>
+      <c r="BJ40" s="64"/>
+      <c r="BK40" s="63"/>
+      <c r="BL40" s="63"/>
+      <c r="BM40" s="63"/>
+      <c r="BN40" s="64"/>
+      <c r="BO40" s="63"/>
+      <c r="BP40" s="63"/>
+      <c r="BQ40" s="63"/>
+      <c r="BR40" s="64"/>
+      <c r="BS40" s="63"/>
+      <c r="BT40" s="63"/>
+      <c r="BU40" s="63"/>
+      <c r="BV40" s="64"/>
+      <c r="BW40" s="63"/>
+      <c r="BX40" s="63"/>
+      <c r="BY40" s="63"/>
+      <c r="BZ40" s="64"/>
+      <c r="CA40" s="63"/>
+      <c r="CB40" s="63"/>
+      <c r="CC40" s="63"/>
+    </row>
+    <row r="41" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="M41" s="62"/>
-      <c r="R41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="Z41" s="64"/>
-      <c r="AD41" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH41" s="64"/>
-      <c r="AL41" s="64"/>
-      <c r="AP41" s="64"/>
-      <c r="AQ41" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT41" s="64"/>
-      <c r="AX41" s="64"/>
-      <c r="BB41" s="64"/>
-      <c r="BF41" s="64"/>
-      <c r="BJ41" s="64"/>
-      <c r="BN41" s="64"/>
-      <c r="BR41" s="64"/>
-      <c r="BV41" s="64"/>
-      <c r="BZ41" s="64"/>
+      <c r="F41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="M41" s="51"/>
+      <c r="R41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AD41" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT41" s="53"/>
+      <c r="AX41" s="53"/>
+      <c r="BB41" s="53"/>
+      <c r="BF41" s="53"/>
+      <c r="BJ41" s="53"/>
+      <c r="BN41" s="53"/>
+      <c r="BR41" s="53"/>
+      <c r="BV41" s="53"/>
+      <c r="BZ41" s="53"/>
     </row>
     <row r="42" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="17" t="s">
         <v>63</v>
       </c>
       <c r="AE42" t="s">
@@ -4034,7 +4034,7 @@
       <c r="AF42" t="s">
         <v>32</v>
       </c>
-      <c r="AL42" s="22" t="s">
+      <c r="AL42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="AM42" t="s">
@@ -4046,7 +4046,7 @@
       <c r="AQ42" t="s">
         <v>32</v>
       </c>
-      <c r="AX42" s="22" t="s">
+      <c r="AX42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="AY42" t="s">
@@ -4056,43 +4056,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+    <row r="43" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="63" t="s">
+      <c r="F43" s="53"/>
+      <c r="G43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="64"/>
-      <c r="M43" s="62"/>
-      <c r="R43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AD43" s="64"/>
-      <c r="AE43" s="63" t="s">
+      <c r="J43" s="53"/>
+      <c r="M43" s="51"/>
+      <c r="R43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH43" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL43" s="64"/>
-      <c r="AP43" s="64"/>
-      <c r="AT43" s="64"/>
-      <c r="AX43" s="64"/>
-      <c r="BB43" s="64"/>
-      <c r="BF43" s="64"/>
-      <c r="BJ43" s="64"/>
-      <c r="BN43" s="64"/>
-      <c r="BR43" s="64"/>
-      <c r="BV43" s="64"/>
-      <c r="BZ43" s="64"/>
+      <c r="AH43" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AT43" s="53"/>
+      <c r="AX43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BF43" s="53"/>
+      <c r="BJ43" s="53"/>
+      <c r="BN43" s="53"/>
+      <c r="BR43" s="53"/>
+      <c r="BV43" s="53"/>
+      <c r="BZ43" s="53"/>
     </row>
     <row r="44" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AI44" t="s">
@@ -4103,7 +4103,7 @@
       </c>
     </row>
     <row r="45" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="17" t="s">
         <v>66</v>
       </c>
       <c r="AI45" t="s">
@@ -4113,49 +4113,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="63" t="s">
+      <c r="F46" s="53"/>
+      <c r="G46" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="64"/>
-      <c r="M46" s="62"/>
-      <c r="R46" s="64"/>
-      <c r="V46" s="64"/>
-      <c r="Z46" s="64"/>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="63" t="s">
+      <c r="J46" s="53"/>
+      <c r="M46" s="51"/>
+      <c r="R46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH46" s="64"/>
-      <c r="AL46" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP46" s="64"/>
-      <c r="AT46" s="64"/>
-      <c r="AU46" s="63" t="s">
+      <c r="AH46" s="53"/>
+      <c r="AL46" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP46" s="53"/>
+      <c r="AT46" s="53"/>
+      <c r="AU46" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="AW46" s="63" t="s">
+      <c r="AW46" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AX46" s="64"/>
-      <c r="BB46" s="64"/>
-      <c r="BF46" s="64"/>
-      <c r="BJ46" s="64"/>
-      <c r="BN46" s="64"/>
-      <c r="BR46" s="64"/>
-      <c r="BV46" s="64"/>
-      <c r="BZ46" s="64"/>
+      <c r="AX46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BF46" s="53"/>
+      <c r="BJ46" s="53"/>
+      <c r="BN46" s="53"/>
+      <c r="BR46" s="53"/>
+      <c r="BV46" s="53"/>
+      <c r="BZ46" s="53"/>
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="17" t="s">
         <v>68</v>
       </c>
       <c r="AM47" t="s">
@@ -4166,7 +4166,7 @@
       </c>
     </row>
     <row r="48" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="17" t="s">
         <v>69</v>
       </c>
       <c r="AM48" t="s">
@@ -4176,78 +4176,78 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62" t="s">
+    <row r="49" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="63" t="s">
+      <c r="F49" s="53"/>
+      <c r="G49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="64"/>
-      <c r="M49" s="62"/>
-      <c r="R49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="Z49" s="64"/>
-      <c r="AD49" s="64"/>
-      <c r="AE49" s="63" t="s">
+      <c r="J49" s="53"/>
+      <c r="M49" s="51"/>
+      <c r="R49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH49" s="64"/>
-      <c r="AL49" s="64"/>
-      <c r="AM49" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP49" s="64"/>
-      <c r="AT49" s="64"/>
-      <c r="AU49" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX49" s="64"/>
-      <c r="BB49" s="64"/>
-      <c r="BF49" s="64"/>
-      <c r="BJ49" s="64"/>
-      <c r="BN49" s="64"/>
-      <c r="BR49" s="64"/>
-      <c r="BV49" s="64"/>
-      <c r="BZ49" s="64"/>
-    </row>
-    <row r="50" spans="1:81" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="70" t="s">
+      <c r="AH49" s="53"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP49" s="53"/>
+      <c r="AT49" s="53"/>
+      <c r="AU49" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX49" s="53"/>
+      <c r="BB49" s="53"/>
+      <c r="BF49" s="53"/>
+      <c r="BJ49" s="53"/>
+      <c r="BN49" s="53"/>
+      <c r="BR49" s="53"/>
+      <c r="BV49" s="53"/>
+      <c r="BZ49" s="53"/>
+    </row>
+    <row r="50" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="F50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="M50" s="70"/>
-      <c r="R50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="Z50" s="72"/>
-      <c r="AD50" s="72"/>
-      <c r="AH50" s="72"/>
-      <c r="AL50" s="72"/>
-      <c r="AP50" s="72"/>
-      <c r="AT50" s="72"/>
-      <c r="AU50" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV50" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX50" s="72"/>
-      <c r="BB50" s="72"/>
-      <c r="BF50" s="72"/>
-      <c r="BJ50" s="72"/>
-      <c r="BN50" s="72"/>
-      <c r="BR50" s="72"/>
-      <c r="BV50" s="72"/>
-      <c r="BZ50" s="72"/>
+      <c r="B50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="M50" s="59"/>
+      <c r="R50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX50" s="61"/>
+      <c r="BB50" s="61"/>
+      <c r="BF50" s="61"/>
+      <c r="BJ50" s="61"/>
+      <c r="BN50" s="61"/>
+      <c r="BR50" s="61"/>
+      <c r="BV50" s="61"/>
+      <c r="BZ50" s="61"/>
     </row>
     <row r="51" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="17" t="s">
         <v>71</v>
       </c>
       <c r="AU51" t="s">
@@ -4257,49 +4257,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="63" t="s">
+      <c r="F52" s="53"/>
+      <c r="G52" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="64"/>
-      <c r="M52" s="62"/>
-      <c r="R52" s="64"/>
-      <c r="V52" s="64"/>
-      <c r="Z52" s="64"/>
-      <c r="AD52" s="64"/>
-      <c r="AE52" s="63" t="s">
+      <c r="J52" s="53"/>
+      <c r="M52" s="51"/>
+      <c r="R52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="Z52" s="53"/>
+      <c r="AD52" s="53"/>
+      <c r="AE52" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AF52" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH52" s="64"/>
-      <c r="AL52" s="64"/>
-      <c r="AP52" s="64"/>
-      <c r="AT52" s="64"/>
-      <c r="AX52" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB52" s="64"/>
-      <c r="BC52" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF52" s="64"/>
-      <c r="BJ52" s="64"/>
-      <c r="BN52" s="64"/>
-      <c r="BR52" s="64"/>
-      <c r="BV52" s="64"/>
-      <c r="BZ52" s="64"/>
+      <c r="AF52" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH52" s="53"/>
+      <c r="AL52" s="53"/>
+      <c r="AP52" s="53"/>
+      <c r="AT52" s="53"/>
+      <c r="AX52" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB52" s="53"/>
+      <c r="BC52" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF52" s="53"/>
+      <c r="BJ52" s="53"/>
+      <c r="BN52" s="53"/>
+      <c r="BR52" s="53"/>
+      <c r="BV52" s="53"/>
+      <c r="BZ52" s="53"/>
     </row>
     <row r="53" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="17" t="s">
         <v>76</v>
       </c>
       <c r="AF53" t="s">
@@ -4312,52 +4312,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="63" t="s">
+      <c r="F54" s="53"/>
+      <c r="G54" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="64"/>
-      <c r="M54" s="62"/>
-      <c r="R54" s="64"/>
-      <c r="V54" s="64"/>
-      <c r="Z54" s="64"/>
-      <c r="AD54" s="64"/>
-      <c r="AE54" s="63" t="s">
+      <c r="J54" s="53"/>
+      <c r="M54" s="51"/>
+      <c r="R54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AD54" s="53"/>
+      <c r="AE54" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH54" s="64"/>
-      <c r="AL54" s="64"/>
-      <c r="AP54" s="64"/>
-      <c r="AT54" s="64"/>
-      <c r="AX54" s="64"/>
-      <c r="BB54" s="64"/>
-      <c r="BC54" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF54" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ54" s="64"/>
-      <c r="BK54" s="63" t="s">
+      <c r="AH54" s="53"/>
+      <c r="AL54" s="53"/>
+      <c r="AP54" s="53"/>
+      <c r="AT54" s="53"/>
+      <c r="AX54" s="53"/>
+      <c r="BB54" s="53"/>
+      <c r="BC54" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF54" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ54" s="53"/>
+      <c r="BK54" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="BN54" s="64"/>
-      <c r="BO54" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR54" s="64"/>
-      <c r="BV54" s="64"/>
-      <c r="BZ54" s="64"/>
+      <c r="BN54" s="53"/>
+      <c r="BO54" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR54" s="53"/>
+      <c r="BV54" s="53"/>
+      <c r="BZ54" s="53"/>
     </row>
     <row r="55" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="17" t="s">
         <v>78</v>
       </c>
       <c r="BG55" t="s">
@@ -4367,127 +4367,127 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:81" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="s">
+    <row r="56" spans="1:81" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="M56" s="62"/>
-      <c r="R56" s="64"/>
-      <c r="V56" s="64"/>
-      <c r="Z56" s="64"/>
-      <c r="AD56" s="64"/>
-      <c r="AH56" s="64"/>
-      <c r="AL56" s="64"/>
-      <c r="AP56" s="64"/>
-      <c r="AT56" s="64"/>
-      <c r="AX56" s="64"/>
-      <c r="BB56" s="64"/>
-      <c r="BF56" s="64"/>
-      <c r="BJ56" s="64"/>
-      <c r="BN56" s="64"/>
-      <c r="BR56" s="64"/>
-      <c r="BV56" s="64"/>
-      <c r="BZ56" s="64"/>
+      <c r="F56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="M56" s="51"/>
+      <c r="R56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AD56" s="53"/>
+      <c r="AH56" s="53"/>
+      <c r="AL56" s="53"/>
+      <c r="AP56" s="53"/>
+      <c r="AT56" s="53"/>
+      <c r="AX56" s="53"/>
+      <c r="BB56" s="53"/>
+      <c r="BF56" s="53"/>
+      <c r="BJ56" s="53"/>
+      <c r="BN56" s="53"/>
+      <c r="BR56" s="53"/>
+      <c r="BV56" s="53"/>
+      <c r="BZ56" s="53"/>
     </row>
     <row r="57" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="44"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="25"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="25"/>
+      <c r="J59" s="14"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="31"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="25"/>
+      <c r="R59" s="14"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="25"/>
+      <c r="V59" s="14"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="25"/>
+      <c r="Z59" s="14"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="25"/>
+      <c r="AD59" s="14"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
-      <c r="AH59" s="25"/>
+      <c r="AH59" s="14"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
-      <c r="AL59" s="25"/>
+      <c r="AL59" s="14"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
-      <c r="AP59" s="25"/>
+      <c r="AP59" s="14"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
-      <c r="AT59" s="25"/>
+      <c r="AT59" s="14"/>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
-      <c r="AX59" s="25"/>
+      <c r="AX59" s="14"/>
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
-      <c r="BB59" s="25"/>
+      <c r="BB59" s="14"/>
       <c r="BC59" s="1"/>
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
-      <c r="BF59" s="25"/>
+      <c r="BF59" s="14"/>
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
       <c r="BI59" s="1"/>
-      <c r="BJ59" s="25"/>
+      <c r="BJ59" s="14"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
       <c r="BM59" s="1"/>
-      <c r="BN59" s="25"/>
+      <c r="BN59" s="14"/>
       <c r="BO59" s="1"/>
       <c r="BP59" s="1"/>
       <c r="BQ59" s="1"/>
-      <c r="BR59" s="25"/>
+      <c r="BR59" s="14"/>
       <c r="BS59" s="1"/>
       <c r="BT59" s="1"/>
       <c r="BU59" s="1"/>
-      <c r="BV59" s="25"/>
+      <c r="BV59" s="14"/>
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" s="1"/>
-      <c r="BZ59" s="25"/>
+      <c r="BZ59" s="14"/>
       <c r="CA59" s="1"/>
       <c r="CB59" s="1"/>
       <c r="CC59" s="1"/>
     </row>
     <row r="60" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C60" t="s">
@@ -4499,7 +4499,7 @@
       <c r="W60" t="s">
         <v>32</v>
       </c>
-      <c r="BR60" s="22" t="s">
+      <c r="BR60" s="11" t="s">
         <v>32</v>
       </c>
       <c r="BW60" t="s">
@@ -4510,7 +4510,7 @@
       </c>
     </row>
     <row r="61" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="17" t="s">
         <v>80</v>
       </c>
       <c r="BS61" t="s">
@@ -4521,7 +4521,7 @@
       </c>
     </row>
     <row r="62" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="17" t="s">
         <v>81</v>
       </c>
       <c r="BS62" t="s">
@@ -4532,20 +4532,23 @@
       </c>
     </row>
     <row r="63" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="17" t="s">
         <v>82</v>
       </c>
       <c r="BK63" t="s">
         <v>32</v>
       </c>
-      <c r="BV63" s="22" t="s">
+      <c r="BV63" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="17" t="s">
         <v>83</v>
       </c>
+      <c r="BK64" t="s">
+        <v>32</v>
+      </c>
       <c r="BW64" t="s">
         <v>32</v>
       </c>
@@ -4554,7 +4557,7 @@
       </c>
     </row>
     <row r="65" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="17" t="s">
         <v>84</v>
       </c>
       <c r="BS65" t="s">
@@ -4571,33 +4574,22 @@
       </c>
     </row>
     <row r="66" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="17" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="BZ3:CC3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="BR2:BU2"/>
@@ -4614,6 +4606,17 @@
     <mergeCell ref="BV3:BY3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/OneillCRUD.xlsx
+++ b/OneillCRUD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coneill/OneDrive - Montana Tech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\coneill1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_7BD98E042394D7069898BE4B6D4EC9C722DFAB6D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D3ECF6A3-FAF6-374E-A5AD-773CEC67E56A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +24,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={658960C4-9DF3-5B48-AD37-890B9F643598}</author>
   </authors>
   <commentList>
-    <comment ref="X17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="X17" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Since MembershipTypeId is required on Membership table, what id will we put in Membership table when we delete a membershipType?? I don’t think we should be soft deleting membershiptypes</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -43,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="90">
   <si>
     <t>Table</t>
   </si>
@@ -108,10 +116,6 @@
     <t>Encounter</t>
   </si>
   <si>
-    <t>Attendee
-Type</t>
-  </si>
-  <si>
     <t>(1)</t>
   </si>
   <si>
@@ -306,29 +310,32 @@
     <t>(x*</t>
   </si>
   <si>
-    <t>Encounter
+    <t>New Contact Information</t>
+  </si>
+  <si>
+    <t>Update Contact Information</t>
+  </si>
+  <si>
+    <t>Delete Contact Information</t>
+  </si>
+  <si>
+    <t>New Member Special Accommodation</t>
+  </si>
+  <si>
+    <t>Update Primary Member</t>
+  </si>
+  <si>
+    <t>Member Encounter
 Link</t>
   </si>
   <si>
-    <t>New Contact Information</t>
-  </si>
-  <si>
-    <t>Update Contact Information</t>
-  </si>
-  <si>
-    <t>Delete Contact Information</t>
-  </si>
-  <si>
-    <t>New Member Special Accommodation</t>
-  </si>
-  <si>
-    <t>Update Primary Member</t>
+    <t>Attendees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,18 +655,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -681,16 +686,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,252 +1036,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="2.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.125" style="9" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="3" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="3" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.125" style="9" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="2.375" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="2.375" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="BB1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="BB1" s="64" t="s">
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BJ1" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BJ1" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="BJ2" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-    </row>
-    <row r="3" spans="1:73" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="BJ2" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+    </row>
+    <row r="3" spans="1:73" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="57" t="s">
+      <c r="B3" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="57" t="s">
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="55" t="s">
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="55" t="s">
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="55" t="s">
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="55" t="s">
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="55" t="s">
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="55" t="s">
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="55" t="s">
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="55" t="s">
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="55" t="s">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="62" t="s">
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="BS3" s="63"/>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
+      <c r="BR3" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="69"/>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1484,9 +1502,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
@@ -1561,9 +1579,9 @@
       <c r="BT5" s="6"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="5"/>
@@ -1574,7 +1592,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1640,9 +1658,9 @@
       <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="5"/>
@@ -1654,10 +1672,10 @@
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="11"/>
@@ -1721,14 +1739,14 @@
       <c r="BT7" s="5"/>
       <c r="BU7" s="5"/>
     </row>
-    <row r="8" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="19"/>
@@ -1737,11 +1755,11 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
       <c r="K8" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="19"/>
@@ -1804,9 +1822,9 @@
       <c r="BT8" s="19"/>
       <c r="BU8" s="19"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
@@ -1825,7 +1843,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -1883,9 +1901,9 @@
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="5"/>
@@ -1905,10 +1923,10 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="11"/>
       <c r="S10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="11"/>
@@ -1964,14 +1982,14 @@
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
     </row>
-    <row r="11" spans="1:73" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="37"/>
@@ -1988,11 +2006,11 @@
       <c r="Q11" s="37"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T11" s="37"/>
       <c r="U11" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V11" s="38"/>
       <c r="W11" s="37"/>
@@ -2047,9 +2065,9 @@
       <c r="BT11" s="37"/>
       <c r="BU11" s="37"/>
     </row>
-    <row r="12" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="32"/>
@@ -2064,7 +2082,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -2126,9 +2144,9 @@
       <c r="BT12" s="32"/>
       <c r="BU12" s="32"/>
     </row>
-    <row r="13" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="32"/>
@@ -2144,10 +2162,10 @@
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
       <c r="O13" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="33"/>
@@ -2207,14 +2225,14 @@
       <c r="BT13" s="32"/>
       <c r="BU13" s="32"/>
     </row>
-    <row r="14" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
@@ -2227,11 +2245,11 @@
       <c r="M14" s="25"/>
       <c r="N14" s="24"/>
       <c r="O14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="25"/>
@@ -2280,7 +2298,7 @@
       <c r="BJ14" s="24"/>
       <c r="BK14" s="25"/>
       <c r="BL14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BM14" s="25"/>
       <c r="BN14" s="24"/>
@@ -2292,9 +2310,9 @@
       <c r="BT14" s="25"/>
       <c r="BU14" s="25"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="5"/>
@@ -2329,7 +2347,7 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
@@ -2371,9 +2389,9 @@
       <c r="BT15" s="5"/>
       <c r="BU15" s="5"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="5"/>
@@ -2409,10 +2427,10 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="11"/>
@@ -2452,9 +2470,9 @@
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
     </row>
-    <row r="17" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2479,7 +2497,7 @@
       <c r="V17" s="24"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y17" s="25"/>
       <c r="Z17" s="24"/>
@@ -2492,11 +2510,11 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="24"/>
       <c r="AI17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ17" s="25"/>
       <c r="AK17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" s="24"/>
       <c r="AM17" s="25"/>
@@ -2535,9 +2553,9 @@
       <c r="BT17" s="25"/>
       <c r="BU17" s="25"/>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5"/>
@@ -2584,7 +2602,7 @@
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
       <c r="AT18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU18" s="5"/>
       <c r="AV18" s="5"/>
@@ -2614,9 +2632,9 @@
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="5"/>
@@ -2664,10 +2682,10 @@
       <c r="AS19" s="5"/>
       <c r="AT19" s="11"/>
       <c r="AU19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW19" s="5"/>
       <c r="AX19" s="11"/>
@@ -2695,9 +2713,9 @@
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
     </row>
-    <row r="20" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -2742,21 +2760,21 @@
       <c r="AP20" s="24"/>
       <c r="AQ20" s="25"/>
       <c r="AR20" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" s="25"/>
       <c r="AT20" s="24"/>
       <c r="AU20" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV20" s="25"/>
       <c r="AW20" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX20" s="24"/>
       <c r="AY20" s="25"/>
       <c r="AZ20" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA20" s="25"/>
       <c r="BB20" s="24"/>
@@ -2780,9 +2798,9 @@
       <c r="BT20" s="25"/>
       <c r="BU20" s="25"/>
     </row>
-    <row r="21" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="32"/>
@@ -2837,7 +2855,7 @@
       <c r="AZ21" s="32"/>
       <c r="BA21" s="32"/>
       <c r="BB21" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC21" s="32"/>
       <c r="BD21" s="32"/>
@@ -2859,9 +2877,9 @@
       <c r="BT21" s="32"/>
       <c r="BU21" s="32"/>
     </row>
-    <row r="22" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="32"/>
@@ -2917,10 +2935,10 @@
       <c r="BA22" s="32"/>
       <c r="BB22" s="33"/>
       <c r="BC22" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD22" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE22" s="32"/>
       <c r="BF22" s="33"/>
@@ -2940,102 +2958,102 @@
       <c r="BT22" s="32"/>
       <c r="BU22" s="32"/>
     </row>
-    <row r="23" spans="1:73" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF23" s="38"/>
-      <c r="BG23" s="37"/>
-      <c r="BH23" s="37"/>
-      <c r="BI23" s="37"/>
-      <c r="BJ23" s="38"/>
-      <c r="BK23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL23" s="37"/>
-      <c r="BM23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN23" s="38"/>
-      <c r="BO23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP23" s="37"/>
-      <c r="BQ23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="BR23" s="38"/>
-      <c r="BS23" s="37"/>
-      <c r="BT23" s="37"/>
-      <c r="BU23" s="37"/>
-    </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="78"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ23" s="78"/>
+      <c r="BA23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD23" s="78"/>
+      <c r="BE23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="78"/>
+      <c r="BH23" s="78"/>
+      <c r="BI23" s="78"/>
+      <c r="BJ23" s="77"/>
+      <c r="BK23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL23" s="78"/>
+      <c r="BM23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN23" s="77"/>
+      <c r="BO23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP23" s="78"/>
+      <c r="BQ23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR23" s="77"/>
+      <c r="BS23" s="78"/>
+      <c r="BT23" s="78"/>
+      <c r="BU23" s="78"/>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="5"/>
@@ -3094,7 +3112,7 @@
       <c r="BD24" s="5"/>
       <c r="BE24" s="5"/>
       <c r="BF24" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
@@ -3112,9 +3130,9 @@
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="5"/>
@@ -3174,10 +3192,10 @@
       <c r="BE25" s="5"/>
       <c r="BF25" s="11"/>
       <c r="BG25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BI25" s="5"/>
       <c r="BJ25" s="11"/>
@@ -3193,9 +3211,9 @@
       <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
     </row>
-    <row r="26" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -3255,11 +3273,11 @@
       <c r="BE26" s="19"/>
       <c r="BF26" s="20"/>
       <c r="BG26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BH26" s="19"/>
       <c r="BI26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BJ26" s="20"/>
       <c r="BK26" s="19"/>
@@ -3274,9 +3292,9 @@
       <c r="BT26" s="19"/>
       <c r="BU26" s="19"/>
     </row>
-    <row r="27" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
@@ -3351,25 +3369,25 @@
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
     </row>
-    <row r="28" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="41"/>
       <c r="J28" s="43"/>
       <c r="N28" s="43"/>
       <c r="O28" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R28" s="43"/>
       <c r="S28" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V28" s="43"/>
       <c r="Z28" s="43"/>
@@ -3385,21 +3403,21 @@
       <c r="BN28" s="43"/>
       <c r="BR28" s="43"/>
     </row>
-    <row r="29" spans="1:73" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>81</v>
+      <c r="C29" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="E29" s="14"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="69" t="s">
-        <v>81</v>
+      <c r="K29" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="N29" s="9"/>
       <c r="R29" s="9"/>
@@ -3417,50 +3435,50 @@
       <c r="BN29" s="9"/>
       <c r="BR29" s="9"/>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" t="s">
-        <v>81</v>
-      </c>
-      <c r="S30" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
-        <v>78</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="44"/>
       <c r="G31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="45"/>
       <c r="N31" s="45"/>
       <c r="R31" s="45"/>
       <c r="V31" s="45"/>
       <c r="W31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z31" s="45"/>
       <c r="AD31" s="45"/>
@@ -3473,176 +3491,170 @@
       <c r="BF31" s="45"/>
       <c r="BJ31" s="45"/>
       <c r="BK31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BM31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BN31" s="45"/>
-      <c r="BO31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ31" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="BR31" s="45"/>
     </row>
-    <row r="32" spans="1:73" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:73" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AP32" s="60"/>
+      <c r="AT32" s="60"/>
+      <c r="AX32" s="60"/>
+      <c r="BB32" s="60"/>
+      <c r="BF32" s="60"/>
+      <c r="BJ32" s="60"/>
+      <c r="BN32" s="60"/>
+      <c r="BR32" s="60"/>
+    </row>
+    <row r="33" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="G33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BR33" s="56"/>
+    </row>
+    <row r="34" spans="1:73" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AL32" s="71"/>
-      <c r="AP32" s="71"/>
-      <c r="AT32" s="71"/>
-      <c r="AX32" s="71"/>
-      <c r="BB32" s="71"/>
-      <c r="BF32" s="71"/>
-      <c r="BJ32" s="71"/>
-      <c r="BN32" s="71"/>
-      <c r="BR32" s="71"/>
-    </row>
-    <row r="33" spans="1:73" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="66"/>
-      <c r="G33" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BJ33" s="67"/>
-      <c r="BN33" s="67"/>
-      <c r="BR33" s="67"/>
-    </row>
-    <row r="34" spans="1:73" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="74"/>
-      <c r="E34" s="73"/>
-      <c r="G34" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AD34" s="74"/>
-      <c r="AH34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AT34" s="74"/>
-      <c r="AX34" s="74"/>
-      <c r="BB34" s="74"/>
-      <c r="BF34" s="74"/>
-      <c r="BJ34" s="74"/>
-      <c r="BN34" s="74"/>
-      <c r="BR34" s="74"/>
-    </row>
-    <row r="35" spans="1:73" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="E35" s="66"/>
-      <c r="J35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BJ35" s="67"/>
-      <c r="BN35" s="67"/>
-      <c r="BR35" s="67"/>
-    </row>
-    <row r="36" spans="1:73" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="E36" s="66"/>
-      <c r="J36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BJ36" s="67"/>
-      <c r="BN36" s="67"/>
-      <c r="BR36" s="67"/>
-    </row>
-    <row r="37" spans="1:73" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="E37" s="66"/>
-      <c r="J37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BJ37" s="67"/>
-      <c r="BN37" s="67"/>
-      <c r="BR37" s="67"/>
-    </row>
-    <row r="38" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="63"/>
+      <c r="E34" s="62"/>
+      <c r="G34" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="BB34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BN34" s="63"/>
+      <c r="BR34" s="63"/>
+    </row>
+    <row r="35" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="E35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BR35" s="56"/>
+    </row>
+    <row r="36" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="E36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AX36" s="56"/>
+      <c r="BB36" s="56"/>
+      <c r="BF36" s="56"/>
+      <c r="BJ36" s="56"/>
+      <c r="BN36" s="56"/>
+      <c r="BR36" s="56"/>
+    </row>
+    <row r="37" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="E37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AT37" s="56"/>
+      <c r="AX37" s="56"/>
+      <c r="BB37" s="56"/>
+      <c r="BF37" s="56"/>
+      <c r="BJ37" s="56"/>
+      <c r="BN37" s="56"/>
+      <c r="BR37" s="56"/>
+    </row>
+    <row r="38" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="43"/>
       <c r="E38" s="41"/>
@@ -3663,19 +3675,19 @@
       <c r="BN38" s="43"/>
       <c r="BR38" s="43"/>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:73" s="50" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:73" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="47"/>
@@ -3750,9 +3762,9 @@
       <c r="BT41" s="47"/>
       <c r="BU41" s="47"/>
     </row>
-    <row r="42" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="43"/>
       <c r="E42" s="41"/>
@@ -3760,13 +3772,13 @@
       <c r="N42" s="43"/>
       <c r="R42" s="43"/>
       <c r="V42" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z42" s="43"/>
       <c r="AD42" s="43"/>
       <c r="AH42" s="43"/>
       <c r="AI42" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL42" s="43"/>
       <c r="AP42" s="43"/>
@@ -3778,24 +3790,24 @@
       <c r="BN42" s="43"/>
       <c r="BR42" s="43"/>
     </row>
-    <row r="43" spans="1:73" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="9"/>
-      <c r="C43" s="69" t="s">
-        <v>81</v>
+      <c r="C43" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="E43" s="14"/>
       <c r="J43" s="9"/>
       <c r="N43" s="9"/>
       <c r="R43" s="9"/>
       <c r="V43" s="9"/>
-      <c r="W43" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="X43" s="69" t="s">
-        <v>81</v>
+      <c r="W43" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="X43" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AD43" s="9"/>
@@ -3810,44 +3822,44 @@
       <c r="BN43" s="9"/>
       <c r="BR43" s="9"/>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" t="s">
+        <v>27</v>
+      </c>
+      <c r="X44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU44" s="51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
         <v>54</v>
-      </c>
-      <c r="W44" t="s">
-        <v>28</v>
-      </c>
-      <c r="X44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD44" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP44" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU44" s="51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
-        <v>55</v>
       </c>
       <c r="B45" s="43"/>
       <c r="E45" s="41"/>
@@ -3856,10 +3868,10 @@
       <c r="R45" s="43"/>
       <c r="V45" s="43"/>
       <c r="W45" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z45" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD45" s="43"/>
       <c r="AH45" s="43"/>
@@ -3873,31 +3885,31 @@
       <c r="BN45" s="43"/>
       <c r="BR45" s="43"/>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="AA47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
         <v>57</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="B48" s="43"/>
       <c r="E48" s="41"/>
@@ -3906,19 +3918,19 @@
       <c r="R48" s="43"/>
       <c r="V48" s="43"/>
       <c r="W48" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z48" s="43"/>
       <c r="AD48" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH48" s="43"/>
       <c r="AL48" s="43"/>
       <c r="AM48" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO48" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="AO48" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="AP48" s="43"/>
       <c r="AT48" s="43"/>
@@ -3929,26 +3941,26 @@
       <c r="BN48" s="43"/>
       <c r="BR48" s="43"/>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
         <v>59</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
-        <v>60</v>
       </c>
       <c r="B50" s="54"/>
       <c r="E50" s="52"/>
@@ -3959,10 +3971,10 @@
       <c r="Z50" s="54"/>
       <c r="AD50" s="54"/>
       <c r="AE50" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG50" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH50" s="54"/>
       <c r="AL50" s="54"/>
@@ -3975,9 +3987,9 @@
       <c r="BN50" s="54"/>
       <c r="BR50" s="54"/>
     </row>
-    <row r="51" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="43"/>
       <c r="E51" s="41"/>
@@ -3986,19 +3998,19 @@
       <c r="R51" s="43"/>
       <c r="V51" s="43"/>
       <c r="W51" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z51" s="43"/>
       <c r="AD51" s="43"/>
       <c r="AE51" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH51" s="43"/>
       <c r="AL51" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM51" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP51" s="43"/>
       <c r="AT51" s="43"/>
@@ -4009,26 +4021,26 @@
       <c r="BN51" s="43"/>
       <c r="BR51" s="43"/>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD52" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="43"/>
       <c r="E53" s="41"/>
@@ -4037,21 +4049,21 @@
       <c r="R53" s="43"/>
       <c r="V53" s="43"/>
       <c r="W53" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X53" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z53" s="43"/>
       <c r="AD53" s="43"/>
       <c r="AH53" s="43"/>
       <c r="AL53" s="43"/>
       <c r="AP53" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT53" s="43"/>
       <c r="AU53" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX53" s="43"/>
       <c r="BB53" s="43"/>
@@ -4060,23 +4072,23 @@
       <c r="BN53" s="43"/>
       <c r="BR53" s="43"/>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="X54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="X54" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ54" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
-        <v>67</v>
       </c>
       <c r="B55" s="43"/>
       <c r="E55" s="41"/>
@@ -4085,7 +4097,7 @@
       <c r="R55" s="43"/>
       <c r="V55" s="43"/>
       <c r="W55" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z55" s="43"/>
       <c r="AD55" s="43"/>
@@ -4094,46 +4106,46 @@
       <c r="AP55" s="43"/>
       <c r="AT55" s="43"/>
       <c r="AU55" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX55" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB55" s="43"/>
       <c r="BC55" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BF55" s="43"/>
       <c r="BG55" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BJ55" s="43"/>
       <c r="BN55" s="43"/>
       <c r="BR55" s="43"/>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AU56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BG56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="43"/>
       <c r="E57" s="41"/>
@@ -4154,19 +4166,19 @@
       <c r="BN57" s="43"/>
       <c r="BR57" s="43"/>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="1"/>
@@ -4241,52 +4253,40 @@
       <c r="BT60" s="1"/>
       <c r="BU60" s="1"/>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="O61" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ61" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO61" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
         <v>70</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="O62" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK62" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL62" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO62" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
-        <v>71</v>
       </c>
       <c r="B63" s="54"/>
       <c r="E63" s="52"/>
@@ -4305,73 +4305,87 @@
       <c r="BF63" s="54"/>
       <c r="BJ63" s="54"/>
       <c r="BK63" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BM63" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BN63" s="54"/>
       <c r="BR63" s="54"/>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN64" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BC64" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN64" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="BC65" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="BC65" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO65" t="s">
-        <v>28</v>
-      </c>
-      <c r="BP65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="BK66" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="BM66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BO66" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="BQ66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="BS66" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="BR3:BU3"/>
     <mergeCell ref="BJ2:BM2"/>
@@ -4388,14 +4402,6 @@
     <mergeCell ref="BN3:BQ3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OneillCRUD.xlsx
+++ b/OneillCRUD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\coneill1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coneill/rfs/csdept17/projects/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCF15C-A4BA-B04E-9F59-FD30C0275717}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
+    <workbookView xWindow="-5320" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,26 +25,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={658960C4-9DF3-5B48-AD37-890B9F643598}</author>
   </authors>
   <commentList>
-    <comment ref="X17" authorId="0" shapeId="0">
+    <comment ref="X17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Since MembershipTypeId is required on Membership table, what id will we put in Membership table when we delete a membershipType?? I don’t think we should be soft deleting membershiptypes</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -335,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -665,6 +657,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -686,29 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,252 +1028,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.375" style="9" customWidth="1"/>
-    <col min="3" max="4" width="2.375" customWidth="1"/>
-    <col min="5" max="5" width="2.375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="3" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="3" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="BB1" s="70" t="s">
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="BB1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BJ1" s="70" t="s">
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BJ1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="71"/>
-      <c r="BN1" s="70" t="s">
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="BO1" s="71"/>
-      <c r="BP1" s="71"/>
-      <c r="BQ1" s="71"/>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="80"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="70" t="s">
+      <c r="V2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="BJ2" s="70" t="s">
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="BJ2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-    </row>
-    <row r="3" spans="1:73" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+    </row>
+    <row r="3" spans="1:73" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="74" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="74" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="74" t="s">
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="72" t="s">
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="72" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="72" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="72" t="s">
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="72" t="s">
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="72" t="s">
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="72" t="s">
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="72" t="s">
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="72" t="s">
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="72" t="s">
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="68" t="s">
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="68" t="s">
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="68" t="s">
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="78"/>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
@@ -1579,7 +1571,7 @@
       <c r="BT5" s="6"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1650,7 @@
       <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1731,7 @@
       <c r="BT7" s="5"/>
       <c r="BU7" s="5"/>
     </row>
-    <row r="8" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
@@ -1822,7 +1814,7 @@
       <c r="BT8" s="19"/>
       <c r="BU8" s="19"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +1893,7 @@
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1982,7 +1974,7 @@
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
     </row>
-    <row r="11" spans="1:73" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
@@ -2065,7 +2057,7 @@
       <c r="BT11" s="37"/>
       <c r="BU11" s="37"/>
     </row>
-    <row r="12" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>36</v>
       </c>
@@ -2144,7 +2136,7 @@
       <c r="BT12" s="32"/>
       <c r="BU12" s="32"/>
     </row>
-    <row r="13" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
@@ -2225,7 +2217,7 @@
       <c r="BT13" s="32"/>
       <c r="BU13" s="32"/>
     </row>
-    <row r="14" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>38</v>
       </c>
@@ -2310,7 +2302,7 @@
       <c r="BT14" s="25"/>
       <c r="BU14" s="25"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -2389,7 +2381,7 @@
       <c r="BT15" s="5"/>
       <c r="BU15" s="5"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>40</v>
       </c>
@@ -2470,7 +2462,7 @@
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
     </row>
-    <row r="17" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>41</v>
       </c>
@@ -2553,7 +2545,7 @@
       <c r="BT17" s="25"/>
       <c r="BU17" s="25"/>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
@@ -2632,7 +2624,7 @@
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
@@ -2713,7 +2705,7 @@
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
     </row>
-    <row r="20" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>44</v>
       </c>
@@ -2798,7 +2790,7 @@
       <c r="BT20" s="25"/>
       <c r="BU20" s="25"/>
     </row>
-    <row r="21" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>46</v>
       </c>
@@ -2877,7 +2869,7 @@
       <c r="BT21" s="32"/>
       <c r="BU21" s="32"/>
     </row>
-    <row r="22" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>47</v>
       </c>
@@ -2958,100 +2950,100 @@
       <c r="BT22" s="32"/>
       <c r="BU22" s="32"/>
     </row>
-    <row r="23" spans="1:73" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:73" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="78"/>
-      <c r="AS23" s="78"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ23" s="78"/>
-      <c r="BA23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD23" s="78"/>
-      <c r="BE23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="78"/>
-      <c r="BH23" s="78"/>
-      <c r="BI23" s="78"/>
-      <c r="BJ23" s="77"/>
-      <c r="BK23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL23" s="78"/>
-      <c r="BM23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN23" s="77"/>
-      <c r="BO23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP23" s="78"/>
-      <c r="BQ23" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR23" s="77"/>
-      <c r="BS23" s="78"/>
-      <c r="BT23" s="78"/>
-      <c r="BU23" s="78"/>
-    </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="67"/>
+      <c r="AR23" s="67"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="67"/>
+      <c r="AV23" s="67"/>
+      <c r="AW23" s="67"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB23" s="66"/>
+      <c r="BC23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD23" s="67"/>
+      <c r="BE23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="67"/>
+      <c r="BI23" s="67"/>
+      <c r="BJ23" s="66"/>
+      <c r="BK23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL23" s="67"/>
+      <c r="BM23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN23" s="66"/>
+      <c r="BO23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP23" s="67"/>
+      <c r="BQ23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR23" s="66"/>
+      <c r="BS23" s="67"/>
+      <c r="BT23" s="67"/>
+      <c r="BU23" s="67"/>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>45</v>
       </c>
@@ -3130,7 +3122,7 @@
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>49</v>
       </c>
@@ -3211,7 +3203,7 @@
       <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
     </row>
-    <row r="26" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>50</v>
       </c>
@@ -3292,7 +3284,7 @@
       <c r="BT26" s="19"/>
       <c r="BU26" s="19"/>
     </row>
-    <row r="27" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>24</v>
       </c>
@@ -3369,7 +3361,7 @@
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
     </row>
-    <row r="28" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
         <v>75</v>
       </c>
@@ -3403,7 +3395,7 @@
       <c r="BN28" s="43"/>
       <c r="BR28" s="43"/>
     </row>
-    <row r="29" spans="1:73" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>86</v>
       </c>
@@ -3435,7 +3427,7 @@
       <c r="BN29" s="9"/>
       <c r="BR29" s="9"/>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>76</v>
       </c>
@@ -3455,7 +3447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>77</v>
       </c>
@@ -3499,7 +3491,7 @@
       <c r="BN31" s="45"/>
       <c r="BR31" s="45"/>
     </row>
-    <row r="32" spans="1:73" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
         <v>83</v>
       </c>
@@ -3528,7 +3520,7 @@
       <c r="BN32" s="60"/>
       <c r="BR32" s="60"/>
     </row>
-    <row r="33" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="55" t="s">
         <v>84</v>
       </c>
@@ -3560,7 +3552,7 @@
       <c r="BN33" s="56"/>
       <c r="BR33" s="56"/>
     </row>
-    <row r="34" spans="1:73" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="s">
         <v>85</v>
       </c>
@@ -3589,7 +3581,7 @@
       <c r="BN34" s="63"/>
       <c r="BR34" s="63"/>
     </row>
-    <row r="35" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="55"/>
       <c r="B35" s="56"/>
       <c r="E35" s="55"/>
@@ -3610,7 +3602,7 @@
       <c r="BN35" s="56"/>
       <c r="BR35" s="56"/>
     </row>
-    <row r="36" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="55"/>
       <c r="B36" s="56"/>
       <c r="E36" s="55"/>
@@ -3631,7 +3623,7 @@
       <c r="BN36" s="56"/>
       <c r="BR36" s="56"/>
     </row>
-    <row r="37" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="E37" s="55"/>
@@ -3652,7 +3644,7 @@
       <c r="BN37" s="56"/>
       <c r="BR37" s="56"/>
     </row>
-    <row r="38" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
@@ -3675,17 +3667,17 @@
       <c r="BN38" s="43"/>
       <c r="BR38" s="43"/>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:73" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
         <v>25</v>
       </c>
@@ -3762,7 +3754,7 @@
       <c r="BT41" s="47"/>
       <c r="BU41" s="47"/>
     </row>
-    <row r="42" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
         <v>52</v>
       </c>
@@ -3790,7 +3782,7 @@
       <c r="BN42" s="43"/>
       <c r="BR42" s="43"/>
     </row>
-    <row r="43" spans="1:73" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
@@ -3822,7 +3814,7 @@
       <c r="BN43" s="9"/>
       <c r="BR43" s="9"/>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>53</v>
       </c>
@@ -3857,7 +3849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
         <v>54</v>
       </c>
@@ -3885,7 +3877,7 @@
       <c r="BN45" s="43"/>
       <c r="BR45" s="43"/>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>55</v>
       </c>
@@ -3896,7 +3888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>56</v>
       </c>
@@ -3907,7 +3899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
         <v>57</v>
       </c>
@@ -3941,7 +3933,7 @@
       <c r="BN48" s="43"/>
       <c r="BR48" s="43"/>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
@@ -3958,7 +3950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="52" t="s">
         <v>59</v>
       </c>
@@ -3987,7 +3979,7 @@
       <c r="BN50" s="54"/>
       <c r="BR50" s="54"/>
     </row>
-    <row r="51" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
         <v>60</v>
       </c>
@@ -4021,7 +4013,7 @@
       <c r="BN51" s="43"/>
       <c r="BR51" s="43"/>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>61</v>
       </c>
@@ -4038,7 +4030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
         <v>64</v>
       </c>
@@ -4072,7 +4064,7 @@
       <c r="BN53" s="43"/>
       <c r="BR53" s="43"/>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>65</v>
       </c>
@@ -4086,7 +4078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
         <v>66</v>
       </c>
@@ -4123,7 +4115,7 @@
       <c r="BN55" s="43"/>
       <c r="BR55" s="43"/>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>67</v>
       </c>
@@ -4143,7 +4135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
         <v>51</v>
       </c>
@@ -4166,17 +4158,17 @@
       <c r="BN57" s="43"/>
       <c r="BR57" s="43"/>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="s">
         <v>26</v>
       </c>
@@ -4253,7 +4245,7 @@
       <c r="BT60" s="1"/>
       <c r="BU60" s="1"/>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
@@ -4267,7 +4259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>69</v>
       </c>
@@ -4284,7 +4276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
         <v>70</v>
       </c>
@@ -4313,7 +4305,7 @@
       <c r="BN63" s="54"/>
       <c r="BR63" s="54"/>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>71</v>
       </c>
@@ -4324,7 +4316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>72</v>
       </c>
@@ -4338,7 +4330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>73</v>
       </c>
@@ -4361,31 +4353,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="BR3:BU3"/>
     <mergeCell ref="BJ2:BM2"/>
@@ -4402,6 +4386,14 @@
     <mergeCell ref="BN3:BQ3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
